--- a/Excel/auth_64/main/01/s11/cmn.xlsx
+++ b/Excel/auth_64/main/01/s11/cmn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>OFFSET</t>
   </si>
@@ -20,13 +20,20 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>...The Previous Day\nSeptember 30, 1995 Late Night</t>
   </si>
   <si>
+    <t>...No Dia Anterior
+\n30 de Setembro de 1995, Madrugada</t>
+  </si>
+  <si>
     <t>...Several hours later\nOctober 1, 4:00 P.M.</t>
+  </si>
+  <si>
+    <t>...Várias horas depois\n1º de outubro, 16:00</t>
   </si>
 </sst>
 </file>
@@ -97,7 +104,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -105,10 +112,10 @@
         <v>9924</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
